--- a/projects/Kofskey1972_one_stage/Kofskey_1972_geometry.xlsx
+++ b/projects/Kofskey1972_one_stage/Kofskey_1972_geometry.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboan\Documents\Validation cases\Kofskey_1972\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasseba\Python Scripts\Mean line model\meanline-axial\projects\Kofskey1972_one_stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C20814-76B4-4F6F-BD58-055E4F27F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F2592D-9E34-4045-97E0-1448CAD4E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FDE42DC1-CC7E-402D-8205-DDE5F8BDD923}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDE42DC1-CC7E-402D-8205-DDE5F8BDD923}"/>
   </bookViews>
   <sheets>
     <sheet name="Kofskey 1972" sheetId="1" r:id="rId1"/>
+    <sheet name="Stator coordinates" sheetId="2" r:id="rId2"/>
+    <sheet name="Rotor coordinates" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Parameter</t>
   </si>
@@ -147,9 +150,6 @@
     <t>c [cm]</t>
   </si>
   <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
     <t>A_out [m^2]</t>
   </si>
   <si>
@@ -162,12 +162,6 @@
     <t>H [cm]</t>
   </si>
   <si>
-    <t>YU</t>
-  </si>
-  <si>
-    <t>YL</t>
-  </si>
-  <si>
     <t>A_throat cos rule:</t>
   </si>
   <si>
@@ -178,6 +172,42 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>s1_YU</t>
+  </si>
+  <si>
+    <t>s1_YL</t>
+  </si>
+  <si>
+    <t>r1_YU</t>
+  </si>
+  <si>
+    <t>r1_YL</t>
+  </si>
+  <si>
+    <t>s2_YU</t>
+  </si>
+  <si>
+    <t>s2_YL</t>
+  </si>
+  <si>
+    <t>r2_YU</t>
+  </si>
+  <si>
+    <t>r2_YL</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Opening coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change </t>
+  </si>
+  <si>
+    <t>Opening cosine rule [cm]</t>
   </si>
 </sst>
 </file>
@@ -543,21 +573,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7C6B3D-8EDF-4223-88DC-26A0AF7701CD}">
-  <dimension ref="A3:O29"/>
+  <dimension ref="A3:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -601,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -618,7 +648,7 @@
         <v>2.4079999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1">
         <v>3.363</v>
@@ -645,7 +675,7 @@
         <v>5.1189999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -662,7 +692,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -682,11 +712,8 @@
         <f t="shared" si="0"/>
         <v>1.4506024096385541</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -706,20 +733,8 @@
         <f>21.75</f>
         <v>21.75</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -739,32 +754,8 @@
         <f>E4*COS(E7*PI()/180)</f>
         <v>2.2365734033155933</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -780,32 +771,8 @@
       <c r="E9">
         <v>10.16</v>
       </c>
-      <c r="G9">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="J9">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K9">
-        <v>0.3</v>
-      </c>
-      <c r="L9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M9">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="N9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -825,77 +792,29 @@
         <f>(E9-N4/2)/(E9+N4/2)</f>
         <v>0.6385114703866468</v>
       </c>
-      <c r="G10">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="H10">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="J10">
-        <v>0.112</v>
-      </c>
-      <c r="K10">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="L10">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="M10">
-        <v>0.315</v>
-      </c>
-      <c r="N10">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" cm="1">
-        <f t="array" ref="B11">MAX(G9:G28-H9:H28)</f>
+        <f t="array" ref="B11">MAX('Stator coordinates'!B3:B26-'Stator coordinates'!C3:C26)</f>
         <v>0.505</v>
       </c>
       <c r="C11" cm="1">
-        <f t="array" ref="C11">MAX(I9:I29-J9:J29)</f>
+        <f t="array" ref="C11">MAX('Rotor coordinates'!B3:B26-'Rotor coordinates'!C3:C26)</f>
         <v>0.44699999999999995</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" ref="D11">MAX(K9:K24-L9:L24)</f>
+        <f t="array" ref="D11">MAX('Stator coordinates'!D3:D19-'Stator coordinates'!E3:E19)</f>
         <v>0.32799999999999996</v>
       </c>
       <c r="E11" cm="1">
-        <f t="array" ref="E11">MAX(M9:M26-N9:N26)</f>
+        <f t="array" ref="E11">MAX('Rotor coordinates'!D3:D20-'Rotor coordinates'!E3:E20)</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G11">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="H11">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="J11">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="L11">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -915,32 +834,8 @@
         <f t="shared" si="2"/>
         <v>21.75</v>
       </c>
-      <c r="G12">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="J12">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="K12">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="L12">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="M12">
-        <v>0.442</v>
-      </c>
-      <c r="N12">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -956,32 +851,8 @@
       <c r="E13">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G13">
-        <v>0.65</v>
-      </c>
-      <c r="H13">
-        <v>0.17</v>
-      </c>
-      <c r="I13">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="J13">
-        <v>0.31</v>
-      </c>
-      <c r="K13">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="L13">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="M13">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="N13">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1001,32 +872,8 @@
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="G14">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="H14">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="J14">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="K14">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="L14">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="M14">
-        <v>0.503</v>
-      </c>
-      <c r="N14">
-        <v>0.22900000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1042,32 +889,8 @@
       <c r="E15">
         <v>13.9</v>
       </c>
-      <c r="G15">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="H15">
-        <v>0.216</v>
-      </c>
-      <c r="I15">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="J15">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="K15">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="L15">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="M15">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="N15">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1083,32 +906,8 @@
       <c r="E16">
         <v>-48.9</v>
       </c>
-      <c r="G16">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.224</v>
-      </c>
-      <c r="I16">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="K16">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="L16">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="M16">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="N16">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1124,32 +923,8 @@
       <c r="E17">
         <v>44</v>
       </c>
-      <c r="G17">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="H17">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="K17">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L17">
-        <v>0.254</v>
-      </c>
-      <c r="M17">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="N17">
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1169,32 +944,8 @@
         <f t="shared" si="4"/>
         <v>0.9535901155856521</v>
       </c>
-      <c r="G18">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="H18">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="J18">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="K18">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="L18">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="M18">
-        <v>0.498</v>
-      </c>
-      <c r="N18">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1210,34 +961,10 @@
       <c r="E19">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G19">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="H19">
-        <v>0.221</v>
-      </c>
-      <c r="I19">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="J19">
-        <v>0.373</v>
-      </c>
-      <c r="K19">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="L19">
-        <v>0.216</v>
-      </c>
-      <c r="M19">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="N19">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <f>2*PI()*H4*B9*0.0001</f>
@@ -1255,34 +982,10 @@
         <f>2*PI()*N4*E9*0.0001</f>
         <v>2.8618200047799462E-2</v>
       </c>
-      <c r="G20">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.221</v>
-      </c>
-      <c r="I20">
-        <v>0.627</v>
-      </c>
-      <c r="J20">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="K20">
-        <v>0.378</v>
-      </c>
-      <c r="L20">
-        <v>0.185</v>
-      </c>
-      <c r="M20">
-        <v>0.439</v>
-      </c>
-      <c r="N20">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1">
         <f>B18*I4*B17*0.0001</f>
@@ -1300,34 +1003,10 @@
         <f>E18*O4*E17*0.0001</f>
         <v>2.1478282327404997E-2</v>
       </c>
-      <c r="G21">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="H21">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="J21">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="K21">
-        <v>0.32</v>
-      </c>
-      <c r="L21">
-        <v>0.152</v>
-      </c>
-      <c r="M21">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="N21">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <f>2*PI()*B9*I4*0.0001</f>
@@ -1345,60 +1024,10 @@
         <f>2*PI()*E9*O4*0.0001</f>
         <v>3.2678243596851536E-2</v>
       </c>
-      <c r="G22">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="H22">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="J22">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="K22">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="L22">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="M22">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="N22">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <v>0.378</v>
-      </c>
-      <c r="H23">
-        <v>0.15</v>
-      </c>
-      <c r="I23">
-        <v>0.45</v>
-      </c>
-      <c r="J23">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="K23">
-        <v>0.193</v>
-      </c>
-      <c r="L23">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="M23">
-        <v>0.3</v>
-      </c>
-      <c r="N23">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <f>B22*COS(B16*PI()/180)</f>
@@ -1416,34 +1045,10 @@
         <f t="shared" si="5"/>
         <v>2.1481868416599614E-2</v>
       </c>
-      <c r="G24">
-        <v>0.32</v>
-      </c>
-      <c r="H24">
-        <v>0.122</v>
-      </c>
-      <c r="I24">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="J24">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="K24">
-        <v>0.124</v>
-      </c>
-      <c r="L24">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M24">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="N24">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <f>(B21-B24)/B21*100</f>
@@ -1461,62 +1066,10 @@
         <f t="shared" si="6"/>
         <v>-1.6696350015108996E-2</v>
       </c>
-      <c r="G25">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="H25">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I25">
-        <v>0.32</v>
-      </c>
-      <c r="J25">
-        <v>0.18</v>
-      </c>
-      <c r="M25">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="N25">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G26">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="H26">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="I26">
-        <v>0.251</v>
-      </c>
-      <c r="J26">
-        <v>0.127</v>
-      </c>
-      <c r="M26">
-        <v>0.112</v>
-      </c>
-      <c r="N26">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H27">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I27">
-        <v>0.17</v>
-      </c>
-      <c r="J27">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1530,22 +1083,10 @@
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="G28">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H28">
-        <v>0.01</v>
-      </c>
-      <c r="I28">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J28">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <f>B18*(1-TAN(ABS(B16)*PI()/180)*TAN(B28*PI()/360))</f>
@@ -1563,15 +1104,875 @@
         <f t="shared" si="7"/>
         <v>0.9058634275711116</v>
       </c>
-      <c r="I29">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J29">
-        <v>2.5000000000000001E-2</v>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>0.77312543546410484</v>
+      </c>
+      <c r="C31">
+        <v>0.72484016891060632</v>
+      </c>
+      <c r="D31">
+        <v>0.84714081951525844</v>
+      </c>
+      <c r="E31">
+        <v>0.9535901155856521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>0.74750324190450901</v>
+      </c>
+      <c r="C32">
+        <v>0.73522337673754801</v>
+      </c>
+      <c r="D32">
+        <v>0.80371462692312601</v>
+      </c>
+      <c r="E32">
+        <v>0.963363217134105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <f>B32/B18*100</f>
+        <v>96.685894373114905</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:E33" si="8">C32/C18*100</f>
+        <v>101.43248239712585</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="8"/>
+        <v>94.873792928903924</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>101.02487446007666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3640D25E-5E7A-4833-B0C7-F1EA82F555C9}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.127</v>
+      </c>
+      <c r="C2">
+        <v>0.127</v>
+      </c>
+      <c r="D2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.127</v>
+      </c>
+      <c r="B3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.254</v>
+      </c>
+      <c r="B4">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C5">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.65</v>
+      </c>
+      <c r="C7">
+        <v>0.17</v>
+      </c>
+      <c r="D7">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.216</v>
+      </c>
+      <c r="D9">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.016</v>
+      </c>
+      <c r="B10">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.224</v>
+      </c>
+      <c r="D10">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.143</v>
+      </c>
+      <c r="B11">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.27</v>
+      </c>
+      <c r="B12">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="C12">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.397</v>
+      </c>
+      <c r="B13">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.221</v>
+      </c>
+      <c r="D13">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.524</v>
+      </c>
+      <c r="B14">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.221</v>
+      </c>
+      <c r="D14">
+        <v>0.378</v>
+      </c>
+      <c r="E14">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.651</v>
+      </c>
+      <c r="B15">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C15">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.32</v>
+      </c>
+      <c r="E15">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.778</v>
+      </c>
+      <c r="B16">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.8640000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1.905</v>
+      </c>
+      <c r="B18">
+        <v>0.378</v>
+      </c>
+      <c r="C18">
+        <v>0.15</v>
+      </c>
+      <c r="D18">
+        <v>0.193</v>
+      </c>
+      <c r="E18">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.032</v>
+      </c>
+      <c r="B19">
+        <v>0.32</v>
+      </c>
+      <c r="C19">
+        <v>0.122</v>
+      </c>
+      <c r="D19">
+        <v>0.124</v>
+      </c>
+      <c r="E19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="B20">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C20">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="D21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2.286</v>
+      </c>
+      <c r="B22">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C22">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="B24">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C24">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2.5169999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.54</v>
+      </c>
+      <c r="B26">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="B27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6DA4B-7557-4197-9CF5-2A05AEE7C801}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.127</v>
+      </c>
+      <c r="B3">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.254</v>
+      </c>
+      <c r="B4">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.112</v>
+      </c>
+      <c r="D4">
+        <v>0.315</v>
+      </c>
+      <c r="E4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.442</v>
+      </c>
+      <c r="E6">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.31</v>
+      </c>
+      <c r="D7">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.503</v>
+      </c>
+      <c r="E8">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.016</v>
+      </c>
+      <c r="B10">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.143</v>
+      </c>
+      <c r="B11">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.27</v>
+      </c>
+      <c r="B12">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.498</v>
+      </c>
+      <c r="E12">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.397</v>
+      </c>
+      <c r="B13">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.373</v>
+      </c>
+      <c r="D13">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E13">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.524</v>
+      </c>
+      <c r="B14">
+        <v>0.627</v>
+      </c>
+      <c r="C14">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.439</v>
+      </c>
+      <c r="E14">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.651</v>
+      </c>
+      <c r="B15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C15">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.778</v>
+      </c>
+      <c r="B16">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.905</v>
+      </c>
+      <c r="B17">
+        <v>0.45</v>
+      </c>
+      <c r="C17">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.3</v>
+      </c>
+      <c r="E17">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2.032</v>
+      </c>
+      <c r="B18">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="B19">
+        <v>0.32</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.286</v>
+      </c>
+      <c r="B20">
+        <v>0.251</v>
+      </c>
+      <c r="C20">
+        <v>0.127</v>
+      </c>
+      <c r="D20">
+        <v>0.112</v>
+      </c>
+      <c r="E20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.3719999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="D22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="B23">
+        <v>0.17</v>
+      </c>
+      <c r="C23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.4380000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2.54</v>
+      </c>
+      <c r="B25">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="B26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>